--- a/Code/Results/Cases/Case_4_80/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_80/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.026596568727143</v>
+        <v>1.104402212121897</v>
       </c>
       <c r="C2">
-        <v>0.09501555747954171</v>
+        <v>0.02741930477330357</v>
       </c>
       <c r="D2">
-        <v>0.2810096713332513</v>
+        <v>0.4930542803894156</v>
       </c>
       <c r="E2">
-        <v>0.06509292511496589</v>
+        <v>0.145548477137325</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.11655982019218</v>
+        <v>3.045865065099576</v>
       </c>
       <c r="H2">
-        <v>1.333455308254287</v>
+        <v>2.366088401623443</v>
       </c>
       <c r="I2">
-        <v>1.508186530022243</v>
+        <v>2.435079019361133</v>
       </c>
       <c r="J2">
-        <v>0.0165554698828525</v>
+        <v>0.04433847406113811</v>
       </c>
       <c r="K2">
-        <v>0.9702339613657216</v>
+        <v>0.8210316687575414</v>
       </c>
       <c r="L2">
-        <v>0.3202532462720882</v>
+        <v>0.5301789097841692</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9019139160326404</v>
+        <v>1.080202246912137</v>
       </c>
       <c r="C3">
-        <v>0.08247353655892198</v>
+        <v>0.02385532807493007</v>
       </c>
       <c r="D3">
-        <v>0.2622619051339115</v>
+        <v>0.4908237796530841</v>
       </c>
       <c r="E3">
-        <v>0.06271615227656824</v>
+        <v>0.1456024328986985</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.025457225221317</v>
+        <v>3.031081629606973</v>
       </c>
       <c r="H3">
-        <v>1.298980809646196</v>
+        <v>2.364444310796955</v>
       </c>
       <c r="I3">
-        <v>1.465162722423223</v>
+        <v>2.430583480470979</v>
       </c>
       <c r="J3">
-        <v>0.01666266697339336</v>
+        <v>0.04442363888641854</v>
       </c>
       <c r="K3">
-        <v>0.845902622087749</v>
+        <v>0.7945556817903423</v>
       </c>
       <c r="L3">
-        <v>0.2951025010056014</v>
+        <v>0.5267605603038703</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8264467873802346</v>
+        <v>1.066005558229534</v>
       </c>
       <c r="C4">
-        <v>0.07483923249482416</v>
+        <v>0.02166690258246717</v>
       </c>
       <c r="D4">
-        <v>0.2511013402713047</v>
+        <v>0.4896567111469778</v>
       </c>
       <c r="E4">
-        <v>0.06132742304830785</v>
+        <v>0.1456821694627113</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.972187195411863</v>
+        <v>3.023078369973078</v>
       </c>
       <c r="H4">
-        <v>1.279284214879596</v>
+        <v>2.364135242036809</v>
       </c>
       <c r="I4">
-        <v>1.44044655655545</v>
+        <v>2.428562245600055</v>
       </c>
       <c r="J4">
-        <v>0.01673300812533207</v>
+        <v>0.04447939325268324</v>
       </c>
       <c r="K4">
-        <v>0.7705528715390244</v>
+        <v>0.778823655251017</v>
       </c>
       <c r="L4">
-        <v>0.2800757060492174</v>
+        <v>0.5248987652203425</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7959406174742298</v>
+        <v>1.060387193872884</v>
       </c>
       <c r="C5">
-        <v>0.07174173584662924</v>
+        <v>0.02077503125183</v>
       </c>
       <c r="D5">
-        <v>0.246636085689758</v>
+        <v>0.4892321078726667</v>
       </c>
       <c r="E5">
-        <v>0.06077846625536232</v>
+        <v>0.1457264051464087</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.95110880065802</v>
+        <v>3.020086846461183</v>
       </c>
       <c r="H5">
-        <v>1.271608758863508</v>
+        <v>2.364185480510287</v>
       </c>
       <c r="I5">
-        <v>1.43077917730848</v>
+        <v>2.42792439153623</v>
       </c>
       <c r="J5">
-        <v>0.01676280188862478</v>
+        <v>0.04450298653988094</v>
       </c>
       <c r="K5">
-        <v>0.7400690659955274</v>
+        <v>0.7725448126576566</v>
       </c>
       <c r="L5">
-        <v>0.2740496244710897</v>
+        <v>0.5241997668671416</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7908892876938296</v>
+        <v>1.059464360780453</v>
       </c>
       <c r="C6">
-        <v>0.07122812777835463</v>
+        <v>0.02062693136797122</v>
       </c>
       <c r="D6">
-        <v>0.2458994808161066</v>
+        <v>0.4891646844992437</v>
       </c>
       <c r="E6">
-        <v>0.06068831450486556</v>
+        <v>0.1457344603257305</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.947645619808569</v>
+        <v>3.019606401330634</v>
       </c>
       <c r="H6">
-        <v>1.270354931574374</v>
+        <v>2.364204465697355</v>
       </c>
       <c r="I6">
-        <v>1.429197712068387</v>
+        <v>2.427829698533124</v>
       </c>
       <c r="J6">
-        <v>0.01676781710675335</v>
+        <v>0.04450695697412543</v>
       </c>
       <c r="K6">
-        <v>0.7350198909548737</v>
+        <v>0.7715102004174526</v>
       </c>
       <c r="L6">
-        <v>0.2730546851675371</v>
+        <v>0.5240873067711931</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8260344028718691</v>
+        <v>1.065929110706662</v>
       </c>
       <c r="C7">
-        <v>0.07479740779045585</v>
+        <v>0.02165487482770345</v>
       </c>
       <c r="D7">
-        <v>0.2510407920667888</v>
+        <v>0.4896507782560917</v>
       </c>
       <c r="E7">
-        <v>0.061319951963835</v>
+        <v>0.1456827184659506</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.971900428187439</v>
+        <v>3.023036932760988</v>
       </c>
       <c r="H7">
-        <v>1.279179303521857</v>
+        <v>2.364135206125013</v>
       </c>
       <c r="I7">
-        <v>1.440314569771438</v>
+        <v>2.428552890956567</v>
       </c>
       <c r="J7">
-        <v>0.0167334053721282</v>
+        <v>0.0444797079025645</v>
       </c>
       <c r="K7">
-        <v>0.7701408927047737</v>
+        <v>0.7787384414552321</v>
       </c>
       <c r="L7">
-        <v>0.279994050667014</v>
+        <v>0.5248890964590487</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9833635825917497</v>
+        <v>1.095920847787141</v>
       </c>
       <c r="C8">
-        <v>0.09067526477009835</v>
+        <v>0.02619044870378673</v>
       </c>
       <c r="D8">
-        <v>0.2744693006176675</v>
+        <v>0.4922432241422001</v>
       </c>
       <c r="E8">
-        <v>0.06425826124169909</v>
+        <v>0.145557420938248</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.084568427912359</v>
+        <v>3.040544760526728</v>
       </c>
       <c r="H8">
-        <v>1.321251514160906</v>
+        <v>2.365376182066171</v>
       </c>
       <c r="I8">
-        <v>1.492984657552554</v>
+        <v>2.433375549459974</v>
       </c>
       <c r="J8">
-        <v>0.01659148796307708</v>
+        <v>0.04436712149286892</v>
       </c>
       <c r="K8">
-        <v>0.9271420518730338</v>
+        <v>0.8117940523562481</v>
       </c>
       <c r="L8">
-        <v>0.3114905238869454</v>
+        <v>0.5289511019017539</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.301821577650173</v>
+        <v>1.159976480278402</v>
       </c>
       <c r="C9">
-        <v>0.1224966917643826</v>
+        <v>0.03508579988839244</v>
       </c>
       <c r="D9">
-        <v>0.3234589652670223</v>
+        <v>0.4989310276934447</v>
       </c>
       <c r="E9">
-        <v>0.07061951448422832</v>
+        <v>0.1456806425502108</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.328681018159301</v>
+        <v>3.083409325445047</v>
       </c>
       <c r="H9">
-        <v>1.416343031769884</v>
+        <v>2.37336642241641</v>
       </c>
       <c r="I9">
-        <v>1.610883984181783</v>
+        <v>2.448700238744038</v>
       </c>
       <c r="J9">
-        <v>0.01634946811058846</v>
+        <v>0.04417371819064941</v>
       </c>
       <c r="K9">
-        <v>1.244213010691823</v>
+        <v>0.880770773128063</v>
       </c>
       <c r="L9">
-        <v>0.3769031053603271</v>
+        <v>0.5387953321445309</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.543830588617539</v>
+        <v>1.210224512754849</v>
       </c>
       <c r="C10">
-        <v>0.1465334693348126</v>
+        <v>0.0416254625330339</v>
       </c>
       <c r="D10">
-        <v>0.3617096758323726</v>
+        <v>0.5048202843528458</v>
       </c>
       <c r="E10">
-        <v>0.07571742249039914</v>
+        <v>0.1459950638270335</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.525196210544891</v>
+        <v>3.120125408934058</v>
       </c>
       <c r="H10">
-        <v>1.495270663805059</v>
+        <v>2.382626349754048</v>
       </c>
       <c r="I10">
-        <v>1.708108150296667</v>
+        <v>2.463544619096837</v>
       </c>
       <c r="J10">
-        <v>0.01619441775622166</v>
+        <v>0.04404818112996356</v>
       </c>
       <c r="K10">
-        <v>1.484805571284056</v>
+        <v>0.9339804275618064</v>
       </c>
       <c r="L10">
-        <v>0.4277152077936108</v>
+        <v>0.5471713426016009</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.656159973782053</v>
+        <v>1.233774128553279</v>
       </c>
       <c r="C11">
-        <v>0.1576707801545325</v>
+        <v>0.04460225718433719</v>
       </c>
       <c r="D11">
-        <v>0.3796995177921758</v>
+        <v>0.5077109719046859</v>
       </c>
       <c r="E11">
-        <v>0.07814317930592551</v>
+        <v>0.1461865160173161</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.61907100238966</v>
+        <v>3.137967984384517</v>
       </c>
       <c r="H11">
-        <v>1.533487093240296</v>
+        <v>2.387575592850169</v>
       </c>
       <c r="I11">
-        <v>1.75505692891754</v>
+        <v>2.471078289548217</v>
       </c>
       <c r="J11">
-        <v>0.01612899655387157</v>
+        <v>0.04399463779657697</v>
       </c>
       <c r="K11">
-        <v>1.596418693901455</v>
+        <v>0.9587372395302793</v>
       </c>
       <c r="L11">
-        <v>0.4515590804520002</v>
+        <v>0.5512298354336878</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.69906267742806</v>
+        <v>1.242790941841292</v>
       </c>
       <c r="C12">
-        <v>0.1619228696718267</v>
+        <v>0.04572981270374044</v>
       </c>
       <c r="D12">
-        <v>0.3866055423095389</v>
+        <v>0.5088359815929522</v>
       </c>
       <c r="E12">
-        <v>0.07907841298875695</v>
+        <v>0.1462659575130871</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.655331814083013</v>
+        <v>3.144888769609679</v>
       </c>
       <c r="H12">
-        <v>1.548322612909089</v>
+        <v>2.389555704920042</v>
       </c>
       <c r="I12">
-        <v>1.773264820085487</v>
+        <v>2.474043487940833</v>
       </c>
       <c r="J12">
-        <v>0.01610497564627611</v>
+        <v>0.04397487266592259</v>
       </c>
       <c r="K12">
-        <v>1.639041230769379</v>
+        <v>0.9681911984489204</v>
       </c>
       <c r="L12">
-        <v>0.460704927215005</v>
+        <v>0.5528023221618525</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.689805785977399</v>
+        <v>1.240844608556387</v>
       </c>
       <c r="C13">
-        <v>0.1610054728968606</v>
+        <v>0.04548695912225753</v>
       </c>
       <c r="D13">
-        <v>0.3851138899650834</v>
+        <v>0.5085923409631761</v>
       </c>
       <c r="E13">
-        <v>0.07887623090799778</v>
+        <v>0.1462485399045939</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.647489552887379</v>
+        <v>3.143390948743871</v>
       </c>
       <c r="H13">
-        <v>1.545110807147523</v>
+        <v>2.389124540856699</v>
       </c>
       <c r="I13">
-        <v>1.769323680593416</v>
+        <v>2.47339988099489</v>
       </c>
       <c r="J13">
-        <v>0.01611011519549521</v>
+        <v>0.043979106763683</v>
       </c>
       <c r="K13">
-        <v>1.629845051190557</v>
+        <v>0.9661516049048373</v>
       </c>
       <c r="L13">
-        <v>0.4587298151048458</v>
+        <v>0.5524620757073251</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.659682001796</v>
+        <v>1.234513963422813</v>
       </c>
       <c r="C14">
-        <v>0.1580198747749364</v>
+        <v>0.04469501545813159</v>
       </c>
       <c r="D14">
-        <v>0.3802657494778572</v>
+        <v>0.5078029188506861</v>
       </c>
       <c r="E14">
-        <v>0.07821977987270046</v>
+        <v>0.1461929126891555</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.622039507182109</v>
+        <v>3.138534069668907</v>
       </c>
       <c r="H14">
-        <v>1.5347001391996</v>
+        <v>2.387736374740086</v>
       </c>
       <c r="I14">
-        <v>1.756546065704001</v>
+        <v>2.471319985917845</v>
       </c>
       <c r="J14">
-        <v>0.01612700514472554</v>
+        <v>0.04399300148606811</v>
       </c>
       <c r="K14">
-        <v>1.599917842755019</v>
+        <v>0.9595134384893527</v>
       </c>
       <c r="L14">
-        <v>0.4523091043246694</v>
+        <v>0.5513584912975347</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.64127936089767</v>
+        <v>1.23064915377617</v>
       </c>
       <c r="C15">
-        <v>0.1561957913547047</v>
+        <v>0.04420996837562541</v>
       </c>
       <c r="D15">
-        <v>0.3773085994665593</v>
+        <v>0.5073233280807443</v>
       </c>
       <c r="E15">
-        <v>0.0778198942101902</v>
+        <v>0.1461597429661623</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.606545544724639</v>
+        <v>3.135580479933083</v>
       </c>
       <c r="H15">
-        <v>1.528371662099431</v>
+        <v>2.38689987907415</v>
       </c>
       <c r="I15">
-        <v>1.74877652287546</v>
+        <v>2.470060624940871</v>
       </c>
       <c r="J15">
-        <v>0.01613744931264005</v>
+        <v>0.04400157883834499</v>
       </c>
       <c r="K15">
-        <v>1.581634491625948</v>
+        <v>0.9554576638101366</v>
       </c>
       <c r="L15">
-        <v>0.4483918004261795</v>
+        <v>0.5506871512323812</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.536538317591436</v>
+        <v>1.208699374760101</v>
       </c>
       <c r="C16">
-        <v>0.1458101562568572</v>
+        <v>0.04143096295705107</v>
       </c>
       <c r="D16">
-        <v>0.3605466003972708</v>
+        <v>0.5046356242862089</v>
       </c>
       <c r="E16">
-        <v>0.07556114977781547</v>
+        <v>0.145983524596371</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.519157101077468</v>
+        <v>3.118982318346156</v>
       </c>
       <c r="H16">
-        <v>1.49282226272166</v>
+        <v>2.382317730929429</v>
       </c>
       <c r="I16">
-        <v>1.705097869022168</v>
+        <v>2.463067995436248</v>
       </c>
       <c r="J16">
-        <v>0.01619879749877873</v>
+        <v>0.04405175186515109</v>
       </c>
       <c r="K16">
-        <v>1.47755877886047</v>
+        <v>0.9323735906791626</v>
       </c>
       <c r="L16">
-        <v>0.4261726141161972</v>
+        <v>0.546911099215194</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.47288646832979</v>
+        <v>1.195410758805053</v>
       </c>
       <c r="C17">
-        <v>0.1394945777582564</v>
+        <v>0.03972663968345103</v>
       </c>
       <c r="D17">
-        <v>0.3504206998899093</v>
+        <v>0.5030409641924081</v>
       </c>
       <c r="E17">
-        <v>0.07420370481778349</v>
+        <v>0.145887807599383</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.466740965949242</v>
+        <v>3.109092086102152</v>
       </c>
       <c r="H17">
-        <v>1.471627359904915</v>
+        <v>2.379695444595797</v>
       </c>
       <c r="I17">
-        <v>1.6790253649108</v>
+        <v>2.458978297251491</v>
       </c>
       <c r="J17">
-        <v>0.01623775367030911</v>
+        <v>0.04408344285384747</v>
       </c>
       <c r="K17">
-        <v>1.414297615703248</v>
+        <v>0.9183533540958422</v>
       </c>
       <c r="L17">
-        <v>0.4127367008830731</v>
+        <v>0.5446581358536946</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.436483405397297</v>
+        <v>1.187832609746977</v>
       </c>
       <c r="C18">
-        <v>0.1358807602399565</v>
+        <v>0.03874653159920172</v>
       </c>
       <c r="D18">
-        <v>0.3446514473671414</v>
+        <v>0.5021436817487199</v>
       </c>
       <c r="E18">
-        <v>0.07343289562235356</v>
+        <v>0.1458373124579744</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.437009721020445</v>
+        <v>3.103510797831404</v>
       </c>
       <c r="H18">
-        <v>1.459652170298142</v>
+        <v>2.378256532104956</v>
       </c>
       <c r="I18">
-        <v>1.664282779760356</v>
+        <v>2.456699507519218</v>
       </c>
       <c r="J18">
-        <v>0.01626064020231555</v>
+        <v>0.04410200625845384</v>
       </c>
       <c r="K18">
-        <v>1.378112402161833</v>
+        <v>0.9103412042927914</v>
       </c>
       <c r="L18">
-        <v>0.405076582583618</v>
+        <v>0.5433856569942037</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.42419236534235</v>
+        <v>1.185277972604155</v>
       </c>
       <c r="C19">
-        <v>0.1346602441424807</v>
+        <v>0.03841471246776962</v>
       </c>
       <c r="D19">
-        <v>0.3427072481162838</v>
+        <v>0.5018433012326824</v>
       </c>
       <c r="E19">
-        <v>0.07317358504816696</v>
+        <v>0.1458209992543971</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.427012895056691</v>
+        <v>3.101639493660002</v>
       </c>
       <c r="H19">
-        <v>1.455633691893439</v>
+        <v>2.377781253823059</v>
       </c>
       <c r="I19">
-        <v>1.659333650807142</v>
+        <v>2.455940569459514</v>
       </c>
       <c r="J19">
-        <v>0.01626847112838714</v>
+        <v>0.04410834920499429</v>
       </c>
       <c r="K19">
-        <v>1.365893903457959</v>
+        <v>0.907637351735076</v>
       </c>
       <c r="L19">
-        <v>0.4024943111475494</v>
+        <v>0.5429588327499886</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.479640503612927</v>
+        <v>1.196818618480762</v>
       </c>
       <c r="C20">
-        <v>0.140164904935915</v>
+        <v>0.03990804955810745</v>
       </c>
       <c r="D20">
-        <v>0.3514928756722071</v>
+        <v>0.5032086569035243</v>
       </c>
       <c r="E20">
-        <v>0.0743471675046905</v>
+        <v>0.1458975251706711</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.47227710682975</v>
+        <v>3.110133810227325</v>
       </c>
       <c r="H20">
-        <v>1.47386106644683</v>
+        <v>2.379967413361612</v>
       </c>
       <c r="I20">
-        <v>1.681774312969438</v>
+        <v>2.459406045480137</v>
       </c>
       <c r="J20">
-        <v>0.01623355692438189</v>
+        <v>0.04408003457627707</v>
       </c>
       <c r="K20">
-        <v>1.421010762446429</v>
+        <v>0.9198404602821881</v>
       </c>
       <c r="L20">
-        <v>0.41415987097281</v>
+        <v>0.5448955498446537</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.668519781288268</v>
+        <v>1.236370741032971</v>
       </c>
       <c r="C21">
-        <v>0.1588958311205033</v>
+        <v>0.04492761983613036</v>
       </c>
       <c r="D21">
-        <v>0.3816871487831861</v>
+        <v>0.5080339675573669</v>
       </c>
       <c r="E21">
-        <v>0.07841213247492362</v>
+        <v>0.1462090634868609</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.629494888736474</v>
+        <v>3.139956194948098</v>
       </c>
       <c r="H21">
-        <v>1.537747866796991</v>
+        <v>2.388141237697994</v>
       </c>
       <c r="I21">
-        <v>1.760287184917942</v>
+        <v>2.471927851509378</v>
       </c>
       <c r="J21">
-        <v>0.01612202357685621</v>
+        <v>0.04398890642791509</v>
       </c>
       <c r="K21">
-        <v>1.608698113514805</v>
+        <v>0.9614610839991826</v>
       </c>
       <c r="L21">
-        <v>0.4541917558712498</v>
+        <v>0.5516816745107036</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.794120286573957</v>
+        <v>1.262797720913454</v>
       </c>
       <c r="C22">
-        <v>0.171342383828474</v>
+        <v>0.04821001282461168</v>
       </c>
       <c r="D22">
-        <v>0.4019715345972656</v>
+        <v>0.5113645721055207</v>
       </c>
       <c r="E22">
-        <v>0.08116658173324609</v>
+        <v>0.1464531300136827</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.736435204104936</v>
+        <v>3.160403972569668</v>
       </c>
       <c r="H22">
-        <v>1.581638806106866</v>
+        <v>2.394100803492108</v>
       </c>
       <c r="I22">
-        <v>1.814123203363749</v>
+        <v>2.480766534563443</v>
       </c>
       <c r="J22">
-        <v>0.01605352734898924</v>
+        <v>0.04393232400314018</v>
       </c>
       <c r="K22">
-        <v>1.733468344368674</v>
+        <v>0.9891234801913527</v>
       </c>
       <c r="L22">
-        <v>0.4810413931488</v>
+        <v>0.5563244101956002</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.726871852378991</v>
+        <v>1.248640430238993</v>
       </c>
       <c r="C23">
-        <v>0.1646787305442103</v>
+        <v>0.0464579589187224</v>
       </c>
       <c r="D23">
-        <v>0.3910918237944401</v>
+        <v>0.5095707924751878</v>
       </c>
       <c r="E23">
-        <v>0.07968707015431065</v>
+        <v>0.1463191717679919</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.67895146507658</v>
+        <v>3.149402957434518</v>
       </c>
       <c r="H23">
-        <v>1.55800666549618</v>
+        <v>2.390863575257697</v>
       </c>
       <c r="I23">
-        <v>1.785145451587951</v>
+        <v>2.475989210704157</v>
       </c>
       <c r="J23">
-        <v>0.0160896762349636</v>
+        <v>0.04396225152652278</v>
       </c>
       <c r="K23">
-        <v>1.6666672211785</v>
+        <v>0.9743174330262718</v>
       </c>
       <c r="L23">
-        <v>0.4666442115871661</v>
+        <v>0.5538275204300618</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.476586411897841</v>
+        <v>1.196181933048678</v>
       </c>
       <c r="C24">
-        <v>0.1398617971850058</v>
+        <v>0.03982603499864013</v>
       </c>
       <c r="D24">
-        <v>0.3510079828778458</v>
+        <v>0.5031327822577651</v>
       </c>
       <c r="E24">
-        <v>0.07428227820718902</v>
+        <v>0.1458931177329852</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.469772965847653</v>
+        <v>3.109662520499825</v>
       </c>
       <c r="H24">
-        <v>1.472850555817104</v>
+        <v>2.379844242343154</v>
       </c>
       <c r="I24">
-        <v>1.680530747523761</v>
+        <v>2.459212434873606</v>
       </c>
       <c r="J24">
-        <v>0.01623545274792981</v>
+        <v>0.04408157438741211</v>
       </c>
       <c r="K24">
-        <v>1.417975177603921</v>
+        <v>0.9191679892005595</v>
       </c>
       <c r="L24">
-        <v>0.4135162561663464</v>
+        <v>0.5447881440185398</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.214412197282229</v>
+        <v>1.142087531055438</v>
       </c>
       <c r="C25">
-        <v>0.1137913473991148</v>
+        <v>0.032678885283147</v>
       </c>
       <c r="D25">
-        <v>0.3098404304214739</v>
+        <v>0.4969503013134045</v>
       </c>
       <c r="E25">
-        <v>0.06882867607293974</v>
+        <v>0.145607917472848</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.25986308196039</v>
+        <v>3.070897644305404</v>
       </c>
       <c r="H25">
-        <v>1.389134240488886</v>
+        <v>2.37060977030211</v>
       </c>
       <c r="I25">
-        <v>1.577258235364454</v>
+        <v>2.443925492004752</v>
       </c>
       <c r="J25">
-        <v>0.01641099592163497</v>
+        <v>0.04422312181134869</v>
       </c>
       <c r="K25">
-        <v>1.157253088521145</v>
+        <v>0.8616660085305909</v>
       </c>
       <c r="L25">
-        <v>0.3587647379009979</v>
+        <v>0.5359312778147114</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_80/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_80/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.104402212121897</v>
+        <v>1.026596568727058</v>
       </c>
       <c r="C2">
-        <v>0.02741930477330357</v>
+        <v>0.09501555747976909</v>
       </c>
       <c r="D2">
-        <v>0.4930542803894156</v>
+        <v>0.281009671333365</v>
       </c>
       <c r="E2">
-        <v>0.145548477137325</v>
+        <v>0.06509292511495168</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.045865065099576</v>
+        <v>2.116559820192208</v>
       </c>
       <c r="H2">
-        <v>2.366088401623443</v>
+        <v>1.333455308254287</v>
       </c>
       <c r="I2">
-        <v>2.435079019361133</v>
+        <v>1.508186530022265</v>
       </c>
       <c r="J2">
-        <v>0.04433847406113811</v>
+        <v>0.01655546988285983</v>
       </c>
       <c r="K2">
-        <v>0.8210316687575414</v>
+        <v>0.9702339613657784</v>
       </c>
       <c r="L2">
-        <v>0.5301789097841692</v>
+        <v>0.3202532462719603</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.080202246912137</v>
+        <v>0.9019139160325835</v>
       </c>
       <c r="C3">
-        <v>0.02385532807493007</v>
+        <v>0.0824735365590783</v>
       </c>
       <c r="D3">
-        <v>0.4908237796530841</v>
+        <v>0.2622619051340109</v>
       </c>
       <c r="E3">
-        <v>0.1456024328986985</v>
+        <v>0.06271615227659133</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.031081629606973</v>
+        <v>2.025457225221317</v>
       </c>
       <c r="H3">
-        <v>2.364444310796955</v>
+        <v>1.298980809646196</v>
       </c>
       <c r="I3">
-        <v>2.430583480470979</v>
+        <v>1.465162722423223</v>
       </c>
       <c r="J3">
-        <v>0.04442363888641854</v>
+        <v>0.01666266697344576</v>
       </c>
       <c r="K3">
-        <v>0.7945556817903423</v>
+        <v>0.8459026220875501</v>
       </c>
       <c r="L3">
-        <v>0.5267605603038703</v>
+        <v>0.2951025010055872</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.066005558229534</v>
+        <v>0.8264467873800072</v>
       </c>
       <c r="C4">
-        <v>0.02166690258246717</v>
+        <v>0.07483923249493785</v>
       </c>
       <c r="D4">
-        <v>0.4896567111469778</v>
+        <v>0.2511013402712052</v>
       </c>
       <c r="E4">
-        <v>0.1456821694627113</v>
+        <v>0.06132742304831673</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.023078369973078</v>
+        <v>1.972187195411891</v>
       </c>
       <c r="H4">
-        <v>2.364135242036809</v>
+        <v>1.279284214879738</v>
       </c>
       <c r="I4">
-        <v>2.428562245600055</v>
+        <v>1.440446556555443</v>
       </c>
       <c r="J4">
-        <v>0.04447939325268324</v>
+        <v>0.01673300812540424</v>
       </c>
       <c r="K4">
-        <v>0.778823655251017</v>
+        <v>0.7705528715389676</v>
       </c>
       <c r="L4">
-        <v>0.5248987652203425</v>
+        <v>0.2800757060493595</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.060387193872884</v>
+        <v>0.7959406174743151</v>
       </c>
       <c r="C5">
-        <v>0.02077503125183</v>
+        <v>0.07174173584664345</v>
       </c>
       <c r="D5">
-        <v>0.4892321078726667</v>
+        <v>0.246636085689687</v>
       </c>
       <c r="E5">
-        <v>0.1457264051464087</v>
+        <v>0.06077846625536587</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.020086846461183</v>
+        <v>1.951108800658005</v>
       </c>
       <c r="H5">
-        <v>2.364185480510287</v>
+        <v>1.27160875886338</v>
       </c>
       <c r="I5">
-        <v>2.42792439153623</v>
+        <v>1.43077917730848</v>
       </c>
       <c r="J5">
-        <v>0.04450298653988094</v>
+        <v>0.01676280188854373</v>
       </c>
       <c r="K5">
-        <v>0.7725448126576566</v>
+        <v>0.7400690659954705</v>
       </c>
       <c r="L5">
-        <v>0.5241997668671416</v>
+        <v>0.2740496244711466</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.059464360780453</v>
+        <v>0.7908892876940286</v>
       </c>
       <c r="C6">
-        <v>0.02062693136797122</v>
+        <v>0.07122812777834042</v>
       </c>
       <c r="D6">
-        <v>0.4891646844992437</v>
+        <v>0.2458994808160924</v>
       </c>
       <c r="E6">
-        <v>0.1457344603257305</v>
+        <v>0.06068831450483181</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.019606401330634</v>
+        <v>1.947645619808512</v>
       </c>
       <c r="H6">
-        <v>2.364204465697355</v>
+        <v>1.270354931574488</v>
       </c>
       <c r="I6">
-        <v>2.427829698533124</v>
+        <v>1.429197712068387</v>
       </c>
       <c r="J6">
-        <v>0.04450695697412543</v>
+        <v>0.01676781710678532</v>
       </c>
       <c r="K6">
-        <v>0.7715102004174526</v>
+        <v>0.7350198909548737</v>
       </c>
       <c r="L6">
-        <v>0.5240873067711931</v>
+        <v>0.2730546851674518</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.065929110706662</v>
+        <v>0.8260344028720397</v>
       </c>
       <c r="C7">
-        <v>0.02165487482770345</v>
+        <v>0.07479740779044164</v>
       </c>
       <c r="D7">
-        <v>0.4896507782560917</v>
+        <v>0.2510407920669877</v>
       </c>
       <c r="E7">
-        <v>0.1456827184659506</v>
+        <v>0.06131995196382967</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.023036932760988</v>
+        <v>1.971900428187467</v>
       </c>
       <c r="H7">
-        <v>2.364135206125013</v>
+        <v>1.279179303521715</v>
       </c>
       <c r="I7">
-        <v>2.428552890956567</v>
+        <v>1.440314569771417</v>
       </c>
       <c r="J7">
-        <v>0.0444797079025645</v>
+        <v>0.01673340537219681</v>
       </c>
       <c r="K7">
-        <v>0.7787384414552321</v>
+        <v>0.7701408927048305</v>
       </c>
       <c r="L7">
-        <v>0.5248890964590487</v>
+        <v>0.279994050667014</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.095920847787141</v>
+        <v>0.9833635825918634</v>
       </c>
       <c r="C8">
-        <v>0.02619044870378673</v>
+        <v>0.09067526477031151</v>
       </c>
       <c r="D8">
-        <v>0.4922432241422001</v>
+        <v>0.2744693006176391</v>
       </c>
       <c r="E8">
-        <v>0.145557420938248</v>
+        <v>0.06425826124166001</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.040544760526728</v>
+        <v>2.084568427912274</v>
       </c>
       <c r="H8">
-        <v>2.365376182066171</v>
+        <v>1.321251514160849</v>
       </c>
       <c r="I8">
-        <v>2.433375549459974</v>
+        <v>1.492984657552533</v>
       </c>
       <c r="J8">
-        <v>0.04436712149286892</v>
+        <v>0.01659148796306242</v>
       </c>
       <c r="K8">
-        <v>0.8117940523562481</v>
+        <v>0.9271420518729485</v>
       </c>
       <c r="L8">
-        <v>0.5289511019017539</v>
+        <v>0.3114905238869596</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.159976480278402</v>
+        <v>1.301821577650202</v>
       </c>
       <c r="C9">
-        <v>0.03508579988839244</v>
+        <v>0.1224966917645958</v>
       </c>
       <c r="D9">
-        <v>0.4989310276934447</v>
+        <v>0.3234589652669086</v>
       </c>
       <c r="E9">
-        <v>0.1456806425502108</v>
+        <v>0.07061951448423542</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.083409325445047</v>
+        <v>2.328681018159244</v>
       </c>
       <c r="H9">
-        <v>2.37336642241641</v>
+        <v>1.41634303176977</v>
       </c>
       <c r="I9">
-        <v>2.448700238744038</v>
+        <v>1.610883984181768</v>
       </c>
       <c r="J9">
-        <v>0.04417371819064941</v>
+        <v>0.01634946811059645</v>
       </c>
       <c r="K9">
-        <v>0.880770773128063</v>
+        <v>1.244213010691766</v>
       </c>
       <c r="L9">
-        <v>0.5387953321445309</v>
+        <v>0.3769031053602276</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.210224512754849</v>
+        <v>1.543830588617453</v>
       </c>
       <c r="C10">
-        <v>0.0416254625330339</v>
+        <v>0.1465334693345568</v>
       </c>
       <c r="D10">
-        <v>0.5048202843528458</v>
+        <v>0.3617096758324294</v>
       </c>
       <c r="E10">
-        <v>0.1459950638270335</v>
+        <v>0.07571742249041336</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.120125408934058</v>
+        <v>2.525196210544919</v>
       </c>
       <c r="H10">
-        <v>2.382626349754048</v>
+        <v>1.495270663805201</v>
       </c>
       <c r="I10">
-        <v>2.463544619096837</v>
+        <v>1.708108150296653</v>
       </c>
       <c r="J10">
-        <v>0.04404818112996356</v>
+        <v>0.01619441775619679</v>
       </c>
       <c r="K10">
-        <v>0.9339804275618064</v>
+        <v>1.484805571284028</v>
       </c>
       <c r="L10">
-        <v>0.5471713426016009</v>
+        <v>0.4277152077936535</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.233774128553279</v>
+        <v>1.656159973781968</v>
       </c>
       <c r="C11">
-        <v>0.04460225718433719</v>
+        <v>0.1576707801547315</v>
       </c>
       <c r="D11">
-        <v>0.5077109719046859</v>
+        <v>0.3796995177921474</v>
       </c>
       <c r="E11">
-        <v>0.1461865160173161</v>
+        <v>0.07814317930598591</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.137967984384517</v>
+        <v>2.619071002389603</v>
       </c>
       <c r="H11">
-        <v>2.387575592850169</v>
+        <v>1.533487093240325</v>
       </c>
       <c r="I11">
-        <v>2.471078289548217</v>
+        <v>1.755056928917568</v>
       </c>
       <c r="J11">
-        <v>0.04399463779657697</v>
+        <v>0.01612899655392486</v>
       </c>
       <c r="K11">
-        <v>0.9587372395302793</v>
+        <v>1.596418693901427</v>
       </c>
       <c r="L11">
-        <v>0.5512298354336878</v>
+        <v>0.4515590804519292</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.242790941841292</v>
+        <v>1.699062677428145</v>
       </c>
       <c r="C12">
-        <v>0.04572981270374044</v>
+        <v>0.1619228696713435</v>
       </c>
       <c r="D12">
-        <v>0.5088359815929522</v>
+        <v>0.386605542309681</v>
       </c>
       <c r="E12">
-        <v>0.1462659575130871</v>
+        <v>0.07907841298875695</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.144888769609679</v>
+        <v>2.655331814083013</v>
       </c>
       <c r="H12">
-        <v>2.389555704920042</v>
+        <v>1.548322612909203</v>
       </c>
       <c r="I12">
-        <v>2.474043487940833</v>
+        <v>1.773264820085458</v>
       </c>
       <c r="J12">
-        <v>0.04397487266592259</v>
+        <v>0.01610497564634628</v>
       </c>
       <c r="K12">
-        <v>0.9681911984489204</v>
+        <v>1.639041230769493</v>
       </c>
       <c r="L12">
-        <v>0.5528023221618525</v>
+        <v>0.4607049272150618</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.240844608556387</v>
+        <v>1.689805785977228</v>
       </c>
       <c r="C13">
-        <v>0.04548695912225753</v>
+        <v>0.1610054728968322</v>
       </c>
       <c r="D13">
-        <v>0.5085923409631761</v>
+        <v>0.3851138899651687</v>
       </c>
       <c r="E13">
-        <v>0.1462485399045939</v>
+        <v>0.07887623090801554</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.143390948743871</v>
+        <v>2.64748955288735</v>
       </c>
       <c r="H13">
-        <v>2.389124540856699</v>
+        <v>1.545110807147495</v>
       </c>
       <c r="I13">
-        <v>2.47339988099489</v>
+        <v>1.769323680593402</v>
       </c>
       <c r="J13">
-        <v>0.043979106763683</v>
+        <v>0.01611011519539929</v>
       </c>
       <c r="K13">
-        <v>0.9661516049048373</v>
+        <v>1.629845051190472</v>
       </c>
       <c r="L13">
-        <v>0.5524620757073251</v>
+        <v>0.4587298151049026</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.234513963422813</v>
+        <v>1.659682001796142</v>
       </c>
       <c r="C14">
-        <v>0.04469501545813159</v>
+        <v>0.158019874775178</v>
       </c>
       <c r="D14">
-        <v>0.5078029188506861</v>
+        <v>0.3802657494779851</v>
       </c>
       <c r="E14">
-        <v>0.1461929126891555</v>
+        <v>0.07821977987269335</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.138534069668907</v>
+        <v>2.622039507182194</v>
       </c>
       <c r="H14">
-        <v>2.387736374740086</v>
+        <v>1.534700139199629</v>
       </c>
       <c r="I14">
-        <v>2.471319985917845</v>
+        <v>1.756546065704015</v>
       </c>
       <c r="J14">
-        <v>0.04399300148606811</v>
+        <v>0.01612700514474552</v>
       </c>
       <c r="K14">
-        <v>0.9595134384893527</v>
+        <v>1.599917842755019</v>
       </c>
       <c r="L14">
-        <v>0.5513584912975347</v>
+        <v>0.4523091043247405</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.23064915377617</v>
+        <v>1.641279360897727</v>
       </c>
       <c r="C15">
-        <v>0.04420996837562541</v>
+        <v>0.1561957913542642</v>
       </c>
       <c r="D15">
-        <v>0.5073233280807443</v>
+        <v>0.3773085994664598</v>
       </c>
       <c r="E15">
-        <v>0.1461597429661623</v>
+        <v>0.07781989421017244</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.135580479933083</v>
+        <v>2.606545544724582</v>
       </c>
       <c r="H15">
-        <v>2.38689987907415</v>
+        <v>1.528371662099431</v>
       </c>
       <c r="I15">
-        <v>2.470060624940871</v>
+        <v>1.748776522875445</v>
       </c>
       <c r="J15">
-        <v>0.04400157883834499</v>
+        <v>0.01613744931261785</v>
       </c>
       <c r="K15">
-        <v>0.9554576638101366</v>
+        <v>1.581634491625948</v>
       </c>
       <c r="L15">
-        <v>0.5506871512323812</v>
+        <v>0.448391800426208</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.208699374760101</v>
+        <v>1.536538317591265</v>
       </c>
       <c r="C16">
-        <v>0.04143096295705107</v>
+        <v>0.1458101562564025</v>
       </c>
       <c r="D16">
-        <v>0.5046356242862089</v>
+        <v>0.3605466003971429</v>
       </c>
       <c r="E16">
-        <v>0.145983524596371</v>
+        <v>0.07556114977777995</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.118982318346156</v>
+        <v>2.519157101077553</v>
       </c>
       <c r="H16">
-        <v>2.382317730929429</v>
+        <v>1.492822262721688</v>
       </c>
       <c r="I16">
-        <v>2.463067995436248</v>
+        <v>1.705097869022154</v>
       </c>
       <c r="J16">
-        <v>0.04405175186515109</v>
+        <v>0.01619879749869835</v>
       </c>
       <c r="K16">
-        <v>0.9323735906791626</v>
+        <v>1.477558778860526</v>
       </c>
       <c r="L16">
-        <v>0.546911099215194</v>
+        <v>0.4261726141161262</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.195410758805053</v>
+        <v>1.472886468329818</v>
       </c>
       <c r="C17">
-        <v>0.03972663968345103</v>
+        <v>0.1394945777580432</v>
       </c>
       <c r="D17">
-        <v>0.5030409641924081</v>
+        <v>0.3504206998898951</v>
       </c>
       <c r="E17">
-        <v>0.145887807599383</v>
+        <v>0.07420370481781191</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.109092086102152</v>
+        <v>2.466740965949327</v>
       </c>
       <c r="H17">
-        <v>2.379695444595797</v>
+        <v>1.471627359904858</v>
       </c>
       <c r="I17">
-        <v>2.458978297251491</v>
+        <v>1.679025364910828</v>
       </c>
       <c r="J17">
-        <v>0.04408344285384747</v>
+        <v>0.0162377536702909</v>
       </c>
       <c r="K17">
-        <v>0.9183533540958422</v>
+        <v>1.414297615703134</v>
       </c>
       <c r="L17">
-        <v>0.5446581358536946</v>
+        <v>0.4127367008829879</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.187832609746977</v>
+        <v>1.436483405397382</v>
       </c>
       <c r="C18">
-        <v>0.03874653159920172</v>
+        <v>0.1358807602397576</v>
       </c>
       <c r="D18">
-        <v>0.5021436817487199</v>
+        <v>0.3446514473671272</v>
       </c>
       <c r="E18">
-        <v>0.1458373124579744</v>
+        <v>0.07343289562232158</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.103510797831404</v>
+        <v>2.437009721020502</v>
       </c>
       <c r="H18">
-        <v>2.378256532104956</v>
+        <v>1.459652170298256</v>
       </c>
       <c r="I18">
-        <v>2.456699507519218</v>
+        <v>1.664282779760356</v>
       </c>
       <c r="J18">
-        <v>0.04410200625845384</v>
+        <v>0.01626064020223961</v>
       </c>
       <c r="K18">
-        <v>0.9103412042927914</v>
+        <v>1.378112402161804</v>
       </c>
       <c r="L18">
-        <v>0.5433856569942037</v>
+        <v>0.4050765825835896</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.185277972604155</v>
+        <v>1.424192365342378</v>
       </c>
       <c r="C19">
-        <v>0.03841471246776962</v>
+        <v>0.134660244142907</v>
       </c>
       <c r="D19">
-        <v>0.5018433012326824</v>
+        <v>0.3427072481161844</v>
       </c>
       <c r="E19">
-        <v>0.1458209992543971</v>
+        <v>0.07317358504814564</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.101639493660002</v>
+        <v>2.42701289505672</v>
       </c>
       <c r="H19">
-        <v>2.377781253823059</v>
+        <v>1.455633691893439</v>
       </c>
       <c r="I19">
-        <v>2.455940569459514</v>
+        <v>1.659333650807142</v>
       </c>
       <c r="J19">
-        <v>0.04410834920499429</v>
+        <v>0.01626847112841467</v>
       </c>
       <c r="K19">
-        <v>0.907637351735076</v>
+        <v>1.365893903457987</v>
       </c>
       <c r="L19">
-        <v>0.5429588327499886</v>
+        <v>0.4024943111476915</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.196818618480762</v>
+        <v>1.479640503612842</v>
       </c>
       <c r="C20">
-        <v>0.03990804955810745</v>
+        <v>0.1401649049358866</v>
       </c>
       <c r="D20">
-        <v>0.5032086569035243</v>
+        <v>0.3514928756718234</v>
       </c>
       <c r="E20">
-        <v>0.1458975251706711</v>
+        <v>0.07434716750463721</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.110133810227325</v>
+        <v>2.472277106829722</v>
       </c>
       <c r="H20">
-        <v>2.379967413361612</v>
+        <v>1.473861066446943</v>
       </c>
       <c r="I20">
-        <v>2.459406045480137</v>
+        <v>1.681774312969438</v>
       </c>
       <c r="J20">
-        <v>0.04408003457627707</v>
+        <v>0.01623355692446005</v>
       </c>
       <c r="K20">
-        <v>0.9198404602821881</v>
+        <v>1.421010762446429</v>
       </c>
       <c r="L20">
-        <v>0.5448955498446537</v>
+        <v>0.4141598709727532</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.236370741032971</v>
+        <v>1.668519781288353</v>
       </c>
       <c r="C21">
-        <v>0.04492761983613036</v>
+        <v>0.1588958311202617</v>
       </c>
       <c r="D21">
-        <v>0.5080339675573669</v>
+        <v>0.3816871487831577</v>
       </c>
       <c r="E21">
-        <v>0.1462090634868609</v>
+        <v>0.07841213247491297</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.139956194948098</v>
+        <v>2.629494888736588</v>
       </c>
       <c r="H21">
-        <v>2.388141237697994</v>
+        <v>1.537747866796906</v>
       </c>
       <c r="I21">
-        <v>2.471927851509378</v>
+        <v>1.760287184917942</v>
       </c>
       <c r="J21">
-        <v>0.04398890642791509</v>
+        <v>0.01612202357682069</v>
       </c>
       <c r="K21">
-        <v>0.9614610839991826</v>
+        <v>1.608698113514862</v>
       </c>
       <c r="L21">
-        <v>0.5516816745107036</v>
+        <v>0.454191755871193</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.262797720913454</v>
+        <v>1.7941202865739</v>
       </c>
       <c r="C22">
-        <v>0.04821001282461168</v>
+        <v>0.1713423838284598</v>
       </c>
       <c r="D22">
-        <v>0.5113645721055207</v>
+        <v>0.4019715345970383</v>
       </c>
       <c r="E22">
-        <v>0.1464531300136827</v>
+        <v>0.08116658173324254</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.160403972569668</v>
+        <v>2.736435204104936</v>
       </c>
       <c r="H22">
-        <v>2.394100803492108</v>
+        <v>1.581638806106838</v>
       </c>
       <c r="I22">
-        <v>2.480766534563443</v>
+        <v>1.814123203363749</v>
       </c>
       <c r="J22">
-        <v>0.04393232400314018</v>
+        <v>0.0160535273491158</v>
       </c>
       <c r="K22">
-        <v>0.9891234801913527</v>
+        <v>1.733468344368674</v>
       </c>
       <c r="L22">
-        <v>0.5563244101956002</v>
+        <v>0.4810413931487574</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.248640430238993</v>
+        <v>1.726871852379048</v>
       </c>
       <c r="C23">
-        <v>0.0464579589187224</v>
+        <v>0.1646787305442388</v>
       </c>
       <c r="D23">
-        <v>0.5095707924751878</v>
+        <v>0.3910918237943406</v>
       </c>
       <c r="E23">
-        <v>0.1463191717679919</v>
+        <v>0.07968707015434973</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.149402957434518</v>
+        <v>2.678951465076693</v>
       </c>
       <c r="H23">
-        <v>2.390863575257697</v>
+        <v>1.558006665496066</v>
       </c>
       <c r="I23">
-        <v>2.475989210704157</v>
+        <v>1.785145451587937</v>
       </c>
       <c r="J23">
-        <v>0.04396225152652278</v>
+        <v>0.0160896762349978</v>
       </c>
       <c r="K23">
-        <v>0.9743174330262718</v>
+        <v>1.666667221178528</v>
       </c>
       <c r="L23">
-        <v>0.5538275204300618</v>
+        <v>0.4666442115870808</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.196181933048678</v>
+        <v>1.476586411897586</v>
       </c>
       <c r="C24">
-        <v>0.03982603499864013</v>
+        <v>0.1398617971844942</v>
       </c>
       <c r="D24">
-        <v>0.5031327822577651</v>
+        <v>0.351007982877718</v>
       </c>
       <c r="E24">
-        <v>0.1458931177329852</v>
+        <v>0.07428227820713929</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.109662520499825</v>
+        <v>2.469772965847625</v>
       </c>
       <c r="H24">
-        <v>2.379844242343154</v>
+        <v>1.472850555817075</v>
       </c>
       <c r="I24">
-        <v>2.459212434873606</v>
+        <v>1.680530747523775</v>
       </c>
       <c r="J24">
-        <v>0.04408157438741211</v>
+        <v>0.01623545274801419</v>
       </c>
       <c r="K24">
-        <v>0.9191679892005595</v>
+        <v>1.417975177604006</v>
       </c>
       <c r="L24">
-        <v>0.5447881440185398</v>
+        <v>0.4135162561663037</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.142087531055438</v>
+        <v>1.214412197282172</v>
       </c>
       <c r="C25">
-        <v>0.032678885283147</v>
+        <v>0.1137913473991432</v>
       </c>
       <c r="D25">
-        <v>0.4969503013134045</v>
+        <v>0.309840430421275</v>
       </c>
       <c r="E25">
-        <v>0.145607917472848</v>
+        <v>0.06882867607291487</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.070897644305404</v>
+        <v>2.25986308196039</v>
       </c>
       <c r="H25">
-        <v>2.37060977030211</v>
+        <v>1.389134240488914</v>
       </c>
       <c r="I25">
-        <v>2.443925492004752</v>
+        <v>1.577258235364482</v>
       </c>
       <c r="J25">
-        <v>0.04422312181134869</v>
+        <v>0.01641099592154704</v>
       </c>
       <c r="K25">
-        <v>0.8616660085305909</v>
+        <v>1.157253088521173</v>
       </c>
       <c r="L25">
-        <v>0.5359312778147114</v>
+        <v>0.3587647379010264</v>
       </c>
       <c r="M25">
         <v>0</v>
